--- a/medicine/Œil et vue/Hypermétropie/Hypermétropie.xlsx
+++ b/medicine/Œil et vue/Hypermétropie/Hypermétropie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperm%C3%A9tropie</t>
+          <t>Hypermétropie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hypermétropie (du grec ὑπέρ hyper « sur » et ὤψ ōps « vue »[1]) est un trouble de la vision opposé à la myopie. Il est caractérisé par le fait que l'œil au repos possède un point focal optique en arrière de la rétine. Une forte accommodation peut être nécessaire pour former une image nette sur la rétine, pouvant entraîner une fatigue visuelle. La modification de la trajectoire des rayons lumineux à l'aide de verres correcteurs, de lentilles de contact ou d'une chirurgie réfractive sont des moyens de correction de l'hypermétropie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypermétropie (du grec ὑπέρ hyper « sur » et ὤψ ōps « vue ») est un trouble de la vision opposé à la myopie. Il est caractérisé par le fait que l'œil au repos possède un point focal optique en arrière de la rétine. Une forte accommodation peut être nécessaire pour former une image nette sur la rétine, pouvant entraîner une fatigue visuelle. La modification de la trajectoire des rayons lumineux à l'aide de verres correcteurs, de lentilles de contact ou d'une chirurgie réfractive sont des moyens de correction de l'hypermétropie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hyperm%C3%A9tropie</t>
+          <t>Hypermétropie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'un point de vue optique pur, l'hypermétropie est le contraire de la myopie : quand l'œil est au repos, il donne d'un objet distant une image qui serait focalisée en arrière de la rétine. L’œil hypermétrope est donc un œil dont le système optique n'est pas assez puissant. L'hypermétropie peut être corrigée grâce à des lentilles convergentes prescrites par l'ophtalmologue.
 « Serait », car les rayons lumineux ne peuvent évidemment pas traverser la paroi oculaire : ce n'est que théoriquement que l'image est focalisée en arrière de la rétine.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyperm%C3%A9tropie</t>
+          <t>Hypermétropie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Causes possibles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’hypermétropie est l'inadéquation de la puissance de l'œil par rapport à sa longueur.
 Schématiquement, on peut distinguer :
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyperm%C3%A9tropie</t>
+          <t>Hypermétropie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,12 +603,14 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les patients souffrant d'hypermétropie se plaignent souvent de céphalées, dues aux efforts nécessaires du cristallin pour accommoder en permanence et former une image nette sur la rétine.
 Les autres symptômes peuvent être une fatigue visuelle, des picotements, une difficulté à se concentrer (surtout chez les enfants).
 Il n'existe pas de baisse d'acuité visuelle, ni de près, ni de loin.
-Le diagnostic d'hypermétropie se fait en utilisant soit un rétinoscope, soit une réfraction réfracteur-objectif automatisée ; soit des lentilles d'essai dans une monture d'essai soit un réfracteur pour obtenir un examen subjectif. Des tests auxiliaires pour les structures et la physiologie anormales peuvent être effectués via un test à la lampe à fente, qui examine la cornée, la conjonctive, la chambre antérieure et l'iris[2].
+Le diagnostic d'hypermétropie se fait en utilisant soit un rétinoscope, soit une réfraction réfracteur-objectif automatisée ; soit des lentilles d'essai dans une monture d'essai soit un réfracteur pour obtenir un examen subjectif. Des tests auxiliaires pour les structures et la physiologie anormales peuvent être effectués via un test à la lampe à fente, qui examine la cornée, la conjonctive, la chambre antérieure et l'iris.
 </t>
         </is>
       </c>
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hyperm%C3%A9tropie</t>
+          <t>Hypermétropie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'hypermétropie est en général découverte avant l'âge adulte. Si elle est faible, elle peut régresser spontanément. Sinon, elle se stabilise. Dans certains cas, on peut même observer une « myopisation ».
 Dans certains cas, l'hypermétropie est susceptible de se compliquer de certaines pathologies :
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hyperm%C3%A9tropie</t>
+          <t>Hypermétropie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,7 +675,9 @@
           <t>Correction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pour obtenir une vision nette, l’image des objets lointains doit être avancée pour être focalisée sur la rétine. La correction de l'hypermétropie a donc pour but de modifier le trajet des rayons lumineux pour qu'ils convergent vers la rétine :
 par des verres de lunettes convexes ;
